--- a/ComputerConfigurator/Resources/CPU.xlsx
+++ b/ComputerConfigurator/Resources/CPU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="420" yWindow="615" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Название</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Intel</t>
   </si>
   <si>
-    <t>LGA1200</t>
-  </si>
-  <si>
     <t>LGA 1200</t>
   </si>
   <si>
@@ -108,42 +105,6 @@
     <t>https://www.dns-shop.ru/product/d9ac6f2cf3293332/processor-intel-core-i3-10100f-box/characteristics/</t>
   </si>
   <si>
-    <t>AMD Athlon X4 840 OEM</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/f394572b71223120/processor-amd-athlon-x4-840-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>FM2+</t>
-  </si>
-  <si>
-    <t>DDR3</t>
-  </si>
-  <si>
-    <t>Intel Core i9-10920X</t>
-  </si>
-  <si>
-    <t>LGA 2066</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/782ce272f3ab1b80/processor-intel-core-i9-10920x-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>Intel Core i9-10980XE OEM</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/ced73f5df3ac1b80/processor-intel-core-i9-10980xe-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD FX-4350 OEM</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/ebf0f57bb77c30b1/processor-amd-fx-4350-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>AM3+</t>
-  </si>
-  <si>
     <t>AMD Athlon 200GE</t>
   </si>
   <si>
@@ -204,84 +165,10 @@
     <t>https://www.dns-shop.ru/product/756a1f786a703332/processor-intel-core-i3-10100-box/characteristics/</t>
   </si>
   <si>
-    <t>Intel Core i5-9400 BOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-LGA 1151-v2</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/fa5d55f817a03332/processor-intel-core-i5-9400-box/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 3900X BOX</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/dc4dba6d93183332/processor-amd-ryzen-9-3900x-box/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950X OEM</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/1f9f21fd09e73332/processor-amd-ryzen-9-5950x-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>Intel Core i5-11400F BOX</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/00c1301d6c303332/processor-intel-core-i5-11400f-box/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD Ryzen Threadripper 3990X BOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Strx4</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/b723bdd240a53332/processor-amd-ryzen-threadripper-3990x-box/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD Ryzen Threadripper 2990WX BOX</t>
-  </si>
-  <si>
-    <t>TR4</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/4f4971ebbfa73330/processor-amd-ryzen-threadripper-2990wx-box/characteristics/</t>
-  </si>
-  <si>
-    <t>Intel Celeron G440 OEM</t>
-  </si>
-  <si>
-    <t>LGA 1155</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/26a49ff1c7c4526f/processor-intel-celeron-g440-oem/characteristics/</t>
-  </si>
-  <si>
-    <t>Intel Pentium Gold G6600 BOX</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/da604d916a723332/processor-intel-pentium-gold-g6600-box/characteristics/</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 3950X BOX</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/4993baf093193332/processor-amd-ryzen-9-3950x-box/characteristics/</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/762609aef72a3332/processor-amd-ryzen-7-pro-2700-oem/</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>Intel Core i5-10400F OEM</t>
   </si>
   <si>
-    <t>End</t>
+    <t>Intel Core i5-10400 BOX</t>
   </si>
 </sst>
 </file>
@@ -647,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +627,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
         <v>12399</v>
@@ -764,18 +651,18 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2">
         <v>15399</v>
@@ -799,18 +686,18 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>36999</v>
@@ -834,18 +721,18 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>14799</v>
@@ -875,12 +762,12 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>8499</v>
@@ -904,158 +791,158 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>1399</v>
+        <v>16399</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>60399</v>
+        <v>3799</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
-        <v>85999</v>
+        <v>5799</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1799</v>
+        <v>12699</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>4750</v>
@@ -1085,12 +972,12 @@
         <v>13</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>11799</v>
@@ -1120,12 +1007,12 @@
         <v>13</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>44999</v>
@@ -1155,12 +1042,12 @@
         <v>15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>30599</v>
@@ -1184,18 +1071,18 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>37599</v>
@@ -1219,18 +1106,18 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>23990</v>
@@ -1260,503 +1147,50 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2">
-        <v>16399</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>3700</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3799</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>3100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5799</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>4000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12699</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>3600</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2">
-        <v>15699</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>2900</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44499</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>3800</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2">
-        <v>77999</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>3400</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="2">
-        <v>16599</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>2600</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2">
-        <v>374525</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>2900</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2">
-        <v>133374</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>3000</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2799</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28">
-        <v>1600</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8299</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>4200</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="2">
-        <v>63999</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30">
-        <v>3500</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2">
-        <v>14799</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>3200</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="K31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1766,33 +1200,19 @@
     <hyperlink ref="K5" r:id="rId4"/>
     <hyperlink ref="K6" r:id="rId5"/>
     <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
-    <hyperlink ref="K23" r:id="rId22"/>
-    <hyperlink ref="K24" r:id="rId23"/>
-    <hyperlink ref="K25" r:id="rId24"/>
-    <hyperlink ref="K26" r:id="rId25"/>
-    <hyperlink ref="K27" r:id="rId26"/>
-    <hyperlink ref="K28" r:id="rId27"/>
-    <hyperlink ref="K29" r:id="rId28"/>
-    <hyperlink ref="K30" r:id="rId29"/>
-    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K12" r:id="rId7"/>
+    <hyperlink ref="K13" r:id="rId8"/>
+    <hyperlink ref="K14" r:id="rId9"/>
+    <hyperlink ref="K15" r:id="rId10"/>
+    <hyperlink ref="K16" r:id="rId11"/>
+    <hyperlink ref="K17" r:id="rId12"/>
+    <hyperlink ref="K8" r:id="rId13"/>
+    <hyperlink ref="K9" r:id="rId14"/>
+    <hyperlink ref="K10" r:id="rId15"/>
+    <hyperlink ref="K11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
